--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/10/seed1/result_data_RandomForest.xlsx
@@ -488,10 +488,10 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.6813</v>
+        <v>8.6457</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.15869999999999</v>
+        <v>-12.10579999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -530,7 +530,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.542000000000001</v>
+        <v>5.381200000000002</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -578,7 +578,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.786199999999995</v>
+        <v>-8.000099999999996</v>
       </c>
     </row>
     <row r="11">
@@ -603,7 +603,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.6547</v>
+        <v>-10.4707</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -620,7 +620,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.222699999999998</v>
+        <v>-8.355899999999993</v>
       </c>
     </row>
     <row r="14">
@@ -656,7 +656,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>4.900699999999998</v>
+        <v>4.8792</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -687,7 +687,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.14559999999999</v>
+        <v>-11.9074</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -701,7 +701,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.1902</v>
+        <v>-11.2969</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -715,7 +715,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.83519999999999</v>
+        <v>-12.9354</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>6.307700000000002</v>
+        <v>6.357699999999999</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -838,7 +838,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.146800000000002</v>
+        <v>5.150900000000003</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -858,7 +858,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-6.9655</v>
+        <v>-7.022</v>
       </c>
     </row>
     <row r="31">
@@ -869,7 +869,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.3572</v>
+        <v>-13.5991</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -880,7 +880,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.4144</v>
+        <v>6.695799999999999</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -992,13 +992,13 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.332299999999998</v>
+        <v>9.167499999999995</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.88030000000001</v>
+        <v>-13.14990000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>-9.136799999999997</v>
+        <v>-9.165199999999995</v>
       </c>
     </row>
     <row r="41">
@@ -1023,7 +1023,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-11.34810000000001</v>
+        <v>-11.46880000000001</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1054,7 +1054,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-6.646700000000003</v>
+        <v>-6.709100000000004</v>
       </c>
     </row>
     <row r="45">
@@ -1093,7 +1093,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.10599999999999</v>
+        <v>-12.06189999999999</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-12.0971</v>
+        <v>-11.8378</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.410999999999996</v>
+        <v>5.233799999999998</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1230,7 +1230,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.908199999999995</v>
+        <v>4.755999999999995</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1317,7 +1317,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-10.161</v>
+        <v>-10.3054</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1331,7 +1331,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-10.8617</v>
+        <v>-10.85989999999999</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.803299999999997</v>
+        <v>5.429399999999998</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1499,7 +1499,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-11.9247</v>
+        <v>-12.06350000000001</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1569,7 +1569,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.77459999999999</v>
+        <v>-14.3334</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1681,10 +1681,10 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-13.42779999999999</v>
+        <v>-13.19609999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.463499999999998</v>
+        <v>-8.275999999999994</v>
       </c>
     </row>
     <row r="90">
@@ -1712,7 +1712,7 @@
         <v>-12.06</v>
       </c>
       <c r="D91" t="n">
-        <v>-7.8224</v>
+        <v>-8.16</v>
       </c>
     </row>
     <row r="92">
@@ -1751,7 +1751,7 @@
         <v>6.16</v>
       </c>
       <c r="C94" t="n">
-        <v>-10.8302</v>
+        <v>-10.77589999999999</v>
       </c>
       <c r="D94" t="n">
         <v>-5.32</v>
@@ -1832,7 +1832,7 @@
         <v>-21.08</v>
       </c>
       <c r="B100" t="n">
-        <v>5.1938</v>
+        <v>4.859000000000002</v>
       </c>
       <c r="C100" t="n">
         <v>-13.95</v>
